--- a/DemoFramework12/TestData/Data.xlsx
+++ b/DemoFramework12/TestData/Data.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12810" windowHeight="3825"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -72,10 +73,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,14 +394,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
